--- a/2024_11_28_Gesamtstruktur_des_deutschen_Nichtwohngebäudebestandes.xlsx
+++ b/2024_11_28_Gesamtstruktur_des_deutschen_Nichtwohngebäudebestandes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/Nichtwohngebaeude-Struktur-Deutschland/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tudublin-my.sharepoint.com/personal/d17128779_mytudublin_ie/Documents/GitHub/Nichtwohngebaeude-Struktur-Deutschland_/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{EDD5254E-F5A4-460D-B346-09BE090CE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88CA95FA-5582-4194-B48C-BDEFED301B78}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{EDD5254E-F5A4-460D-B346-09BE090CE86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EBBEBF0-6817-49CD-B0FF-60AE779D79FD}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,7 +625,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -637,19 +636,27 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <i/>
         <u/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>www.sfasdfsdsfdfsd.de</t>
+      <t>https://www.researchgate.net/publication/386209693_Gesamtstruktur_des_deutschen_Nichtwohngebaudebestands_-_GEG-relevante_Nichtwohngebaude_differenziert_nach_Unterkategorien_gering_bzw_nicht_konditionierten_Gebauden</t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -657,31 +664,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. DOI </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>safsdfasdfasdfd</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> DOI: 10.13140RG.2.2.25164.83845.</t>
     </r>
   </si>
 </sst>
@@ -692,7 +675,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,7 +771,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1732,8 +1737,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1795,12 +1803,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,6 +1844,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5711,8 +5716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,8 +5796,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+    <row r="25" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="144" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5857,73 +5862,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="119" t="s">
+      <c r="B2" s="117"/>
+      <c r="C2" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="121" t="s">
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="125" t="s">
+      <c r="A3" s="118"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="125" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="128" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="124"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
@@ -5963,10 +5968,10 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="130"/>
+      <c r="B5" s="109"/>
       <c r="C5" s="33">
         <v>306.9016865792097</v>
       </c>
@@ -6322,10 +6327,10 @@
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="110"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="33">
         <v>22.967199708468065</v>
       </c>
@@ -6777,10 +6782,10 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="130"/>
+      <c r="B21" s="109"/>
       <c r="C21" s="33">
         <v>62.849989721347356</v>
       </c>
@@ -7530,10 +7535,10 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="109" t="s">
+      <c r="A36" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="110"/>
+      <c r="B36" s="111"/>
       <c r="C36" s="79">
         <v>153.60819804754371</v>
       </c>
@@ -8393,10 +8398,10 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="129" t="s">
+      <c r="A53" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="130"/>
+      <c r="B53" s="109"/>
       <c r="C53" s="33">
         <v>140.72512362670076</v>
       </c>
@@ -8805,10 +8810,10 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="109" t="s">
+      <c r="A61" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="110"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="79">
         <v>78.186839803553497</v>
       </c>
@@ -9729,10 +9734,10 @@
       <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="129" t="s">
+      <c r="A79" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="B79" s="130"/>
+      <c r="B79" s="109"/>
       <c r="C79" s="33">
         <v>269.76878561547289</v>
       </c>
@@ -10196,10 +10201,10 @@
       <c r="O87" s="3"/>
     </row>
     <row r="88" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="110"/>
+      <c r="B88" s="111"/>
       <c r="C88" s="79">
         <v>666.45088401214002</v>
       </c>
@@ -10891,10 +10896,10 @@
       <c r="O100" s="3"/>
     </row>
     <row r="101" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="129" t="s">
+      <c r="A101" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="130"/>
+      <c r="B101" s="109"/>
       <c r="C101" s="33">
         <v>187.09424659956102</v>
       </c>
@@ -11303,10 +11308,10 @@
       <c r="O108" s="3"/>
     </row>
     <row r="109" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="109" t="s">
+      <c r="A109" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B109" s="110"/>
+      <c r="B109" s="111"/>
       <c r="C109" s="79">
         <v>69.692686991047083</v>
       </c>
@@ -11725,10 +11730,10 @@
       <c r="O116" s="3"/>
     </row>
     <row r="117" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="129" t="s">
+      <c r="A117" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="130"/>
+      <c r="B117" s="109"/>
       <c r="C117" s="33">
         <v>22.25762591946404</v>
       </c>
@@ -12305,11 +12310,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A117:B117"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:B4"/>
@@ -12323,6 +12323,11 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12351,23 +12356,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="136"/>
+      <c r="A1" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="135"/>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="137"/>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
+      <c r="A2" s="136"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
@@ -12379,13 +12384,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="2">
         <v>21519.6977055307</v>
       </c>
@@ -12398,12 +12403,12 @@
     </row>
     <row r="4" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="4">
         <v>7545.3660037577702</v>
       </c>
@@ -12434,10 +12439,10 @@
     </row>
     <row r="6" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="D6" s="143" t="s">
+      <c r="D6" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="144"/>
+      <c r="E6" s="143"/>
       <c r="F6" s="10">
         <f>'[2]tab.2.scr'!B2/1000</f>
         <v>331.82879656252601</v>
@@ -12605,10 +12610,10 @@
     </row>
     <row r="15" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="144"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="13">
         <f>'[2]tab.2.scr'!B11/1000</f>
         <v>265.27648967363001</v>
@@ -12738,12 +12743,12 @@
     </row>
     <row r="22" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="130" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
       <c r="F22" s="21">
         <v>13974.3317017729</v>
       </c>
